--- a/Monthly/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
+++ b/Monthly/Forecast/Stationaritiy/Percentage Return/toyota.xlsx
@@ -417,13 +417,13 @@
         <v>106</v>
       </c>
       <c r="C2">
-        <v>-0.03034383976974508</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-11.86234501339593</v>
+        <v>-11.95466323385704</v>
       </c>
       <c r="E2">
-        <v>11.80165733385644</v>
+        <v>11.95466323385704</v>
       </c>
       <c r="F2">
         <v>-0.2197534762999886</v>
@@ -437,13 +437,13 @@
         <v>107</v>
       </c>
       <c r="C3">
-        <v>0.04146568624687656</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-11.73516841943017</v>
+        <v>-11.89874204404065</v>
       </c>
       <c r="E3">
-        <v>11.81809979192393</v>
+        <v>11.89874204404065</v>
       </c>
       <c r="F3">
         <v>8.837523100405242</v>
@@ -457,13 +457,13 @@
         <v>108</v>
       </c>
       <c r="C4">
-        <v>-0.9653555065135082</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-12.8037841419905</v>
+        <v>-11.96023604276411</v>
       </c>
       <c r="E4">
-        <v>10.87307312896348</v>
+        <v>11.96023604276411</v>
       </c>
       <c r="F4">
         <v>-0.336210111613866</v>
@@ -477,13 +477,13 @@
         <v>109</v>
       </c>
       <c r="C5">
-        <v>0.5897840044000484</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-11.19480165868812</v>
+        <v>-11.90541347582562</v>
       </c>
       <c r="E5">
-        <v>12.37436966748822</v>
+        <v>11.90541347582562</v>
       </c>
       <c r="F5">
         <v>-4.312594878601672</v>
@@ -497,13 +497,13 @@
         <v>110</v>
       </c>
       <c r="C6">
-        <v>0.1020505248650565</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-11.66441931727301</v>
+        <v>-11.87854625834612</v>
       </c>
       <c r="E6">
-        <v>11.86852036700312</v>
+        <v>11.87854625834612</v>
       </c>
       <c r="F6">
         <v>3.319806940959591</v>
@@ -517,13 +517,13 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>-0.4108346013229462</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-12.13934819231221</v>
+        <v>-11.84103548121231</v>
       </c>
       <c r="E7">
-        <v>11.31767898966632</v>
+        <v>11.84103548121231</v>
       </c>
       <c r="F7">
         <v>1.037681316622852</v>
@@ -537,13 +537,13 @@
         <v>112</v>
       </c>
       <c r="C8">
-        <v>0.1234746166589132</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-11.55563265032758</v>
+        <v>-11.78962165740889</v>
       </c>
       <c r="E8">
-        <v>11.80258188364541</v>
+        <v>11.78962165740889</v>
       </c>
       <c r="F8">
         <v>-1.378397148784316</v>
@@ -557,13 +557,13 @@
         <v>113</v>
       </c>
       <c r="C9">
-        <v>0.0692010574801647</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-11.56141071795866</v>
+        <v>-11.74009052540655</v>
       </c>
       <c r="E9">
-        <v>11.69981283291899</v>
+        <v>11.74009052540655</v>
       </c>
       <c r="F9">
         <v>-6.122206987756407</v>
@@ -577,13 +577,13 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>0.5709662993850095</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-11.06415149022259</v>
+        <v>-11.7423911920767</v>
       </c>
       <c r="E10">
-        <v>12.20608408899261</v>
+        <v>11.7423911920767</v>
       </c>
       <c r="F10">
         <v>6.779880296045793</v>
@@ -597,13 +597,13 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <v>-1.062480403644382</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-12.70198102057313</v>
+        <v>-11.75671263330753</v>
       </c>
       <c r="E11">
-        <v>10.57702021328436</v>
+        <v>11.75671263330753</v>
       </c>
       <c r="F11">
         <v>-7.483852131564284</v>
@@ -617,13 +617,13 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>1.505392642633809</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-10.1417004408941</v>
+        <v>-11.78488733808978</v>
       </c>
       <c r="E12">
-        <v>13.15248572616172</v>
+        <v>11.78488733808978</v>
       </c>
       <c r="F12">
         <v>-5.55976921548611</v>
@@ -637,13 +637,13 @@
         <v>117</v>
       </c>
       <c r="C13">
-        <v>-0.152362855251527</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-11.81845461190164</v>
+        <v>-11.77758333484025</v>
       </c>
       <c r="E13">
-        <v>11.51372890139858</v>
+        <v>11.77758333484025</v>
       </c>
       <c r="F13">
         <v>3.938908583174605</v>
@@ -657,13 +657,13 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>-0.4013430184026425</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-12.04076490914626</v>
+        <v>-11.749087351733</v>
       </c>
       <c r="E14">
-        <v>11.23807887234098</v>
+        <v>11.749087351733</v>
       </c>
       <c r="F14">
         <v>-1.04530568520893</v>
@@ -677,13 +677,13 @@
         <v>119</v>
       </c>
       <c r="C15">
-        <v>0.3161236591737984</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-11.27485521137895</v>
+        <v>-11.70112466855159</v>
       </c>
       <c r="E15">
-        <v>11.90710252972655</v>
+        <v>11.70112466855159</v>
       </c>
       <c r="F15">
         <v>-10.5165944200845</v>
@@ -697,13 +697,13 @@
         <v>120</v>
       </c>
       <c r="C16">
-        <v>0.9168166554063424</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-10.78698534280673</v>
+        <v>-11.80321922614662</v>
       </c>
       <c r="E16">
-        <v>12.62061865361942</v>
+        <v>11.80321922614662</v>
       </c>
       <c r="F16">
         <v>5.620063334561554</v>
@@ -717,13 +717,13 @@
         <v>121</v>
       </c>
       <c r="C17">
-        <v>-1.124174483811057</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-12.80886408349269</v>
+        <v>-11.79692334798725</v>
       </c>
       <c r="E17">
-        <v>10.56051511587058</v>
+        <v>11.79692334798725</v>
       </c>
       <c r="F17">
         <v>-2.097514837683612</v>
@@ -737,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="C18">
-        <v>0.7798489133340749</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-10.85811217890855</v>
+        <v>-11.75437025117223</v>
       </c>
       <c r="E18">
-        <v>12.4178100055767</v>
+        <v>11.75437025117223</v>
       </c>
       <c r="F18">
         <v>1.781725101570153</v>
@@ -757,13 +757,13 @@
         <v>123</v>
       </c>
       <c r="C19">
-        <v>-0.5895756126799732</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-12.18146239478921</v>
+        <v>-11.71072476624017</v>
       </c>
       <c r="E19">
-        <v>11.00231116942927</v>
+        <v>11.71072476624017</v>
       </c>
       <c r="F19">
         <v>-1.219850713664705</v>
@@ -777,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="C20">
-        <v>0.4339582119953371</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-11.11161893695672</v>
+        <v>-11.66538462507537</v>
       </c>
       <c r="E20">
-        <v>11.9795353609474</v>
+        <v>11.66538462507537</v>
       </c>
       <c r="F20">
         <v>3.615798657907288</v>
@@ -797,13 +797,13 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <v>-0.6561335468716276</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-12.16880056511061</v>
+        <v>-11.63590776383712</v>
       </c>
       <c r="E21">
-        <v>10.85653347136735</v>
+        <v>11.63590776383712</v>
       </c>
       <c r="F21">
         <v>17.97018992867114</v>
@@ -817,13 +817,13 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <v>-1.682946695960512</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-13.598927834611</v>
+        <v>-12.00689379975593</v>
       </c>
       <c r="E22">
-        <v>10.23303444268998</v>
+        <v>12.00689379975593</v>
       </c>
       <c r="F22">
         <v>5.031453131526042</v>
@@ -837,13 +837,13 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <v>0.255259242350379</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-11.66665848412401</v>
+        <v>-11.99150123669922</v>
       </c>
       <c r="E23">
-        <v>12.17717696882477</v>
+        <v>11.99150123669922</v>
       </c>
       <c r="F23">
         <v>2.981086814124101</v>
@@ -857,13 +857,13 @@
         <v>128</v>
       </c>
       <c r="C24">
-        <v>-0.3938203195883436</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-12.27844810445945</v>
+        <v>-11.95572717601785</v>
       </c>
       <c r="E24">
-        <v>11.49080746528277</v>
+        <v>11.95572717601785</v>
       </c>
       <c r="F24">
         <v>6.436486049483836</v>
@@ -877,13 +877,13 @@
         <v>129</v>
       </c>
       <c r="C25">
-        <v>-0.2933484349874766</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-12.19019451767985</v>
+        <v>-11.96098176434501</v>
       </c>
       <c r="E25">
-        <v>11.60349764770489</v>
+        <v>11.96098176434501</v>
       </c>
       <c r="F25">
         <v>0.9261040444794588</v>
@@ -897,13 +897,13 @@
         <v>130</v>
       </c>
       <c r="C26">
-        <v>0.09117984480588914</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-11.76166009694028</v>
+        <v>-11.91595270571371</v>
       </c>
       <c r="E26">
-        <v>11.94401978655206</v>
+        <v>11.91595270571371</v>
       </c>
       <c r="F26">
         <v>4.364985077023054</v>
